--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fillo\Desktop\Progetto ing-sfw\ing-sw-2020-paltrinieri-pagliani-pagliaroli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A47F3E-568B-4FC2-89DA-F60FD4D91376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C3759-33F2-4321-AE92-8C5D90D017F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{273BB5FA-4839-43D0-8644-A46E8061342E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{273BB5FA-4839-43D0-8644-A46E8061342E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Fillo</t>
   </si>
@@ -42,16 +42,25 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>Lato Server</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>Casi di test</t>
-  </si>
-  <si>
-    <t>Java Doc</t>
+    <t>cose</t>
+  </si>
+  <si>
+    <t>Tutta la parte di rete</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Divinità</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Divinita</t>
   </si>
 </sst>
 </file>
@@ -403,15 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A955BC-8426-4EB8-87FE-19F886A6D61F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -421,21 +434,48 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
